--- a/Calculadora/Calculo Ponto de Função.xlsx
+++ b/Calculadora/Calculo Ponto de Função.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="FP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Dominio de informação</t>
   </si>
@@ -114,12 +114,33 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Esforço</t>
+  </si>
+  <si>
+    <t>5 FPs/mês</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prazo </t>
+  </si>
+  <si>
+    <t>3,4 meses</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salario médio analista </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,9 +178,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,6 +694,36 @@
         <v>17.2</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2">
+        <v>15688.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3922.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
